--- a/AfDD_2024_Annex_Table_Tab12.xlsx
+++ b/AfDD_2024_Annex_Table_Tab12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1738140-B263-4751-A8BC-FFAC0B012AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35D32F68-6D5B-4200-BB68-E6886BF57E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{F5A237F3-2C82-4246-8F70-5F89344AB725}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{652E87E6-457B-459C-A66B-9E5DD288E64D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -1657,7 +1657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F35AF3-D3EA-4870-9B39-A2318FAB3094}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D531B98-24D8-423E-879A-A203E24E1A85}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6531,12 +6531,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{45CFDD2B-0952-4306-A8C5-88715AD1AA9A}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{79738E32-8B56-42F4-90B7-FF9F3C324F04}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{356025C0-AF81-484C-91C6-AB40203C0244}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{7ABF250B-7316-478B-9305-C219893E7360}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{A9A837AD-7052-4DE4-9CBA-AEEA9EE31D41}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{F9806D39-934B-4DA4-A362-F515913DE4A2}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3EFB432A-7A15-4A3F-AC57-C1CA4D926A82}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{86BB449A-51D2-47D0-B1E2-17B2AB1F564B}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{B57C34DE-13E6-45E4-85F6-D3F58A9F1C66}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{4AA6CAA9-82DA-43D2-B6B1-CA7D8F55454A}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{41340368-2EB4-4422-8613-DF20597F7D7A}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{E0DE8CBD-9D32-4FA2-9288-79A0D0A95D94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab12.xlsx
+++ b/AfDD_2024_Annex_Table_Tab12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35D32F68-6D5B-4200-BB68-E6886BF57E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A0BD35D-B1C9-47E0-856F-F3FCA98CD12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{652E87E6-457B-459C-A66B-9E5DD288E64D}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{AB68C295-F3D3-4448-ABA8-84669C016BD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -1338,10 +1338,10 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1657,7 +1657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D531B98-24D8-423E-879A-A203E24E1A85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894967C2-FCCC-4959-A5FA-59F4FBF732D5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1669,9 +1669,9 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.42578125" style="139" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="12.42578125" style="140" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="139" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.42578125" style="140" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="12.42578125" style="141" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="140" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6459,7 +6459,7 @@
       <c r="O110" s="136"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B111" s="141" t="s">
+      <c r="B111" s="138" t="s">
         <v>177</v>
       </c>
       <c r="C111" s="136"/>
@@ -6477,7 +6477,7 @@
       <c r="O111" s="136"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="138" t="s">
         <v>174</v>
       </c>
       <c r="C112" s="136"/>
@@ -6527,16 +6527,16 @@
       <c r="O114" s="136"/>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B115" s="138"/>
+      <c r="B115" s="139"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3EFB432A-7A15-4A3F-AC57-C1CA4D926A82}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{86BB449A-51D2-47D0-B1E2-17B2AB1F564B}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{B57C34DE-13E6-45E4-85F6-D3F58A9F1C66}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{4AA6CAA9-82DA-43D2-B6B1-CA7D8F55454A}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{41340368-2EB4-4422-8613-DF20597F7D7A}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{E0DE8CBD-9D32-4FA2-9288-79A0D0A95D94}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7990A000-5D5A-4009-A5C0-CCA1CE322FE2}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7618921A-E4F1-4682-9C35-232278CBE83C}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{2064C4B6-5FA4-4FFD-BDAE-C55FA5382A4B}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{1F1B0928-286D-4169-A4F8-9593A54C6C03}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{711C4825-84EC-4359-8A7D-079BC131FB1A}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{408EFCD9-10A9-4B96-B4C2-1053FEA46FB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab12.xlsx
+++ b/AfDD_2024_Annex_Table_Tab12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A0BD35D-B1C9-47E0-856F-F3FCA98CD12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51727F5E-9DB8-4A85-83C9-9D23D2149DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{AB68C295-F3D3-4448-ABA8-84669C016BD5}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{C754911B-02C3-4E2C-8D36-DD2563FF0CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -1657,7 +1657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894967C2-FCCC-4959-A5FA-59F4FBF732D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7782E51C-F3A9-4533-8095-2AE0F8D0AAE7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6531,12 +6531,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7990A000-5D5A-4009-A5C0-CCA1CE322FE2}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7618921A-E4F1-4682-9C35-232278CBE83C}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{2064C4B6-5FA4-4FFD-BDAE-C55FA5382A4B}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{1F1B0928-286D-4169-A4F8-9593A54C6C03}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{711C4825-84EC-4359-8A7D-079BC131FB1A}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{408EFCD9-10A9-4B96-B4C2-1053FEA46FB1}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{34D94224-D9CA-4A5C-AABE-98D9946B65B7}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{15F7F275-FA14-45EC-8FEB-1C3BF77967CD}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{F99E7845-E5EB-429D-8ED1-411A1DD07A96}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{7D4A3252-E083-4376-98ED-770BF1D06FB7}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{A0D01A79-0FCB-49CE-8F95-BC38986A7457}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{8F8633D9-7FFB-4AE2-9876-EB6541D3584E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>
